--- a/utils/machine_agenda.xlsx
+++ b/utils/machine_agenda.xlsx
@@ -11219,6 +11219,11 @@
           <t>22:12</t>
         </is>
       </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
@@ -11226,6 +11231,11 @@
           <t>22:13</t>
         </is>
       </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -11233,6 +11243,11 @@
           <t>22:14</t>
         </is>
       </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
@@ -11240,6 +11255,11 @@
           <t>22:15</t>
         </is>
       </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
@@ -11247,6 +11267,11 @@
           <t>22:16</t>
         </is>
       </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
@@ -11254,6 +11279,11 @@
           <t>22:17</t>
         </is>
       </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
@@ -11261,6 +11291,11 @@
           <t>22:18</t>
         </is>
       </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
@@ -11268,6 +11303,11 @@
           <t>22:19</t>
         </is>
       </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
@@ -11275,6 +11315,11 @@
           <t>22:20</t>
         </is>
       </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
@@ -11282,6 +11327,11 @@
           <t>22:21</t>
         </is>
       </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
@@ -11289,6 +11339,11 @@
           <t>22:22</t>
         </is>
       </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
@@ -11296,6 +11351,11 @@
           <t>22:23</t>
         </is>
       </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
@@ -11303,6 +11363,11 @@
           <t>22:24</t>
         </is>
       </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -11310,6 +11375,11 @@
           <t>22:25</t>
         </is>
       </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
@@ -11317,6 +11387,11 @@
           <t>22:26</t>
         </is>
       </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
@@ -11324,6 +11399,11 @@
           <t>22:27</t>
         </is>
       </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
@@ -11331,6 +11411,11 @@
           <t>22:28</t>
         </is>
       </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -11338,6 +11423,11 @@
           <t>22:29</t>
         </is>
       </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
@@ -11345,6 +11435,11 @@
           <t>22:30</t>
         </is>
       </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
@@ -11352,6 +11447,11 @@
           <t>22:31</t>
         </is>
       </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -11359,6 +11459,11 @@
           <t>22:32</t>
         </is>
       </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
@@ -11366,6 +11471,11 @@
           <t>22:33</t>
         </is>
       </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
@@ -11373,6 +11483,11 @@
           <t>22:34</t>
         </is>
       </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -11380,6 +11495,11 @@
           <t>22:35</t>
         </is>
       </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
@@ -11387,6 +11507,11 @@
           <t>22:36</t>
         </is>
       </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
@@ -11394,6 +11519,11 @@
           <t>22:37</t>
         </is>
       </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -11401,6 +11531,11 @@
           <t>22:38</t>
         </is>
       </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
@@ -11408,6 +11543,11 @@
           <t>22:39</t>
         </is>
       </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
@@ -11415,6 +11555,11 @@
           <t>22:40</t>
         </is>
       </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
@@ -11422,6 +11567,11 @@
           <t>22:41</t>
         </is>
       </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
@@ -11429,6 +11579,11 @@
           <t>22:42</t>
         </is>
       </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
@@ -11436,6 +11591,11 @@
           <t>22:43</t>
         </is>
       </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
@@ -11443,6 +11603,11 @@
           <t>22:44</t>
         </is>
       </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
@@ -11450,6 +11615,11 @@
           <t>22:45</t>
         </is>
       </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
@@ -11457,6 +11627,11 @@
           <t>22:46</t>
         </is>
       </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
@@ -11464,6 +11639,11 @@
           <t>22:47</t>
         </is>
       </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
@@ -11471,6 +11651,11 @@
           <t>22:48</t>
         </is>
       </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
@@ -11478,11 +11663,21 @@
           <t>22:49</t>
         </is>
       </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
+        </is>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
           <t>22:50</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>1 (CT)</t>
         </is>
       </c>
     </row>

--- a/utils/machine_agenda.xlsx
+++ b/utils/machine_agenda.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1441"/>
+  <dimension ref="A1:E1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,6 +425,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,6 +449,11 @@
           <t>CT-3</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MRI-3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11198,6 +11204,11 @@
           <t>22:09</t>
         </is>
       </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
@@ -11205,6 +11216,11 @@
           <t>22:10</t>
         </is>
       </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -11212,6 +11228,11 @@
           <t>22:11</t>
         </is>
       </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
@@ -11224,6 +11245,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
@@ -11236,6 +11262,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -11248,6 +11279,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
@@ -11260,6 +11296,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
@@ -11272,6 +11313,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
@@ -11284,6 +11330,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
@@ -11296,6 +11347,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
@@ -11308,6 +11364,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
@@ -11320,6 +11381,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
@@ -11332,6 +11398,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
@@ -11344,6 +11415,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
@@ -11356,6 +11432,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
@@ -11368,6 +11449,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -11380,6 +11466,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
@@ -11392,6 +11483,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
@@ -11404,6 +11500,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
@@ -11416,6 +11517,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -11428,6 +11534,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
@@ -11440,6 +11551,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
@@ -11452,6 +11568,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -11464,6 +11585,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
@@ -11476,6 +11602,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
@@ -11488,6 +11619,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -11500,6 +11636,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
@@ -11512,6 +11653,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
@@ -11524,6 +11670,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -11536,6 +11687,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
@@ -11548,6 +11704,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
@@ -11560,6 +11721,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
@@ -11572,6 +11738,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
@@ -11584,6 +11755,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
@@ -11596,6 +11772,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
@@ -11608,6 +11789,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
@@ -11620,6 +11806,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
@@ -11632,6 +11823,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
@@ -11644,6 +11840,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
@@ -11656,6 +11857,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
@@ -11668,6 +11874,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
@@ -11680,6 +11891,11 @@
           <t>1 (CT)</t>
         </is>
       </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
@@ -11687,6 +11903,11 @@
           <t>22:51</t>
         </is>
       </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
@@ -11694,6 +11915,11 @@
           <t>22:52</t>
         </is>
       </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
@@ -11701,6 +11927,11 @@
           <t>22:53</t>
         </is>
       </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
@@ -11708,6 +11939,11 @@
           <t>22:54</t>
         </is>
       </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
@@ -11715,6 +11951,11 @@
           <t>22:55</t>
         </is>
       </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
@@ -11722,6 +11963,11 @@
           <t>22:56</t>
         </is>
       </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
@@ -11729,6 +11975,11 @@
           <t>22:57</t>
         </is>
       </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
@@ -11736,6 +11987,11 @@
           <t>22:58</t>
         </is>
       </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
@@ -11743,6 +11999,11 @@
           <t>22:59</t>
         </is>
       </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
@@ -11750,6 +12011,11 @@
           <t>23:00</t>
         </is>
       </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
@@ -11757,6 +12023,11 @@
           <t>23:01</t>
         </is>
       </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
@@ -11764,6 +12035,11 @@
           <t>23:02</t>
         </is>
       </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
@@ -11771,11 +12047,21 @@
           <t>23:03</t>
         </is>
       </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
           <t>23:04</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>9 (MRI)</t>
         </is>
       </c>
     </row>

--- a/utils/machine_agenda.xlsx
+++ b/utils/machine_agenda.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1441"/>
+  <dimension ref="A1:F1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,6 +452,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>MRI-2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>MRI-3</t>
         </is>
       </c>
@@ -7754,6 +7760,11 @@
           <t>16:39</t>
         </is>
       </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
@@ -7761,6 +7772,11 @@
           <t>16:40</t>
         </is>
       </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
@@ -7768,6 +7784,11 @@
           <t>16:41</t>
         </is>
       </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
@@ -7775,6 +7796,11 @@
           <t>16:42</t>
         </is>
       </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
@@ -7782,6 +7808,11 @@
           <t>16:43</t>
         </is>
       </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
@@ -7789,6 +7820,11 @@
           <t>16:44</t>
         </is>
       </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
@@ -7796,6 +7832,11 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -7803,6 +7844,11 @@
           <t>16:46</t>
         </is>
       </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
@@ -7810,6 +7856,11 @@
           <t>16:47</t>
         </is>
       </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
@@ -7817,6 +7868,11 @@
           <t>16:48</t>
         </is>
       </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
@@ -7824,6 +7880,11 @@
           <t>16:49</t>
         </is>
       </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
@@ -7836,6 +7897,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -7848,6 +7914,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -7860,6 +7931,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
@@ -7872,6 +7948,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
@@ -7884,6 +7965,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
@@ -7896,6 +7982,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
@@ -7908,6 +7999,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
@@ -7920,6 +8016,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
@@ -7932,6 +8033,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
@@ -7944,6 +8050,11 @@
           <t>2 (CT)</t>
         </is>
       </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>2 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
@@ -11204,7 +11315,7 @@
           <t>22:09</t>
         </is>
       </c>
-      <c r="E1331" t="inlineStr">
+      <c r="F1331" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11216,7 +11327,7 @@
           <t>22:10</t>
         </is>
       </c>
-      <c r="E1332" t="inlineStr">
+      <c r="F1332" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11228,7 +11339,7 @@
           <t>22:11</t>
         </is>
       </c>
-      <c r="E1333" t="inlineStr">
+      <c r="F1333" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11245,7 +11356,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1334" t="inlineStr">
+      <c r="F1334" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11262,7 +11373,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1335" t="inlineStr">
+      <c r="F1335" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11279,7 +11390,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1336" t="inlineStr">
+      <c r="F1336" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11296,7 +11407,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1337" t="inlineStr">
+      <c r="F1337" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11313,7 +11424,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1338" t="inlineStr">
+      <c r="F1338" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11330,7 +11441,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1339" t="inlineStr">
+      <c r="F1339" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11347,7 +11458,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1340" t="inlineStr">
+      <c r="F1340" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11364,7 +11475,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1341" t="inlineStr">
+      <c r="F1341" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11381,7 +11492,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1342" t="inlineStr">
+      <c r="F1342" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11398,7 +11509,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1343" t="inlineStr">
+      <c r="F1343" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11415,7 +11526,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1344" t="inlineStr">
+      <c r="F1344" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11432,7 +11543,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1345" t="inlineStr">
+      <c r="F1345" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11449,7 +11560,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1346" t="inlineStr">
+      <c r="F1346" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11466,7 +11577,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1347" t="inlineStr">
+      <c r="F1347" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11483,7 +11594,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1348" t="inlineStr">
+      <c r="F1348" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11500,7 +11611,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1349" t="inlineStr">
+      <c r="F1349" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11517,7 +11628,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1350" t="inlineStr">
+      <c r="F1350" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11534,7 +11645,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1351" t="inlineStr">
+      <c r="F1351" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11551,7 +11662,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1352" t="inlineStr">
+      <c r="F1352" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11568,7 +11679,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1353" t="inlineStr">
+      <c r="F1353" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11585,7 +11696,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1354" t="inlineStr">
+      <c r="F1354" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11602,7 +11713,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1355" t="inlineStr">
+      <c r="F1355" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11619,7 +11730,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1356" t="inlineStr">
+      <c r="F1356" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11636,7 +11747,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1357" t="inlineStr">
+      <c r="F1357" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11653,7 +11764,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1358" t="inlineStr">
+      <c r="F1358" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11670,7 +11781,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1359" t="inlineStr">
+      <c r="F1359" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11687,7 +11798,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1360" t="inlineStr">
+      <c r="F1360" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11704,7 +11815,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1361" t="inlineStr">
+      <c r="F1361" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11721,7 +11832,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1362" t="inlineStr">
+      <c r="F1362" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11738,7 +11849,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1363" t="inlineStr">
+      <c r="F1363" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11755,7 +11866,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1364" t="inlineStr">
+      <c r="F1364" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11772,7 +11883,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1365" t="inlineStr">
+      <c r="F1365" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11789,7 +11900,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1366" t="inlineStr">
+      <c r="F1366" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11806,7 +11917,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1367" t="inlineStr">
+      <c r="F1367" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11823,7 +11934,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1368" t="inlineStr">
+      <c r="F1368" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11840,7 +11951,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1369" t="inlineStr">
+      <c r="F1369" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11857,7 +11968,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1370" t="inlineStr">
+      <c r="F1370" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11874,7 +11985,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1371" t="inlineStr">
+      <c r="F1371" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11891,7 +12002,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="E1372" t="inlineStr">
+      <c r="F1372" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11903,7 +12014,7 @@
           <t>22:51</t>
         </is>
       </c>
-      <c r="E1373" t="inlineStr">
+      <c r="F1373" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11915,7 +12026,7 @@
           <t>22:52</t>
         </is>
       </c>
-      <c r="E1374" t="inlineStr">
+      <c r="F1374" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11927,7 +12038,7 @@
           <t>22:53</t>
         </is>
       </c>
-      <c r="E1375" t="inlineStr">
+      <c r="F1375" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11939,7 +12050,7 @@
           <t>22:54</t>
         </is>
       </c>
-      <c r="E1376" t="inlineStr">
+      <c r="F1376" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11951,7 +12062,7 @@
           <t>22:55</t>
         </is>
       </c>
-      <c r="E1377" t="inlineStr">
+      <c r="F1377" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11963,7 +12074,7 @@
           <t>22:56</t>
         </is>
       </c>
-      <c r="E1378" t="inlineStr">
+      <c r="F1378" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11975,7 +12086,7 @@
           <t>22:57</t>
         </is>
       </c>
-      <c r="E1379" t="inlineStr">
+      <c r="F1379" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11987,7 +12098,7 @@
           <t>22:58</t>
         </is>
       </c>
-      <c r="E1380" t="inlineStr">
+      <c r="F1380" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11999,7 +12110,7 @@
           <t>22:59</t>
         </is>
       </c>
-      <c r="E1381" t="inlineStr">
+      <c r="F1381" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12011,7 +12122,7 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="E1382" t="inlineStr">
+      <c r="F1382" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12023,7 +12134,7 @@
           <t>23:01</t>
         </is>
       </c>
-      <c r="E1383" t="inlineStr">
+      <c r="F1383" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12035,7 +12146,7 @@
           <t>23:02</t>
         </is>
       </c>
-      <c r="E1384" t="inlineStr">
+      <c r="F1384" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12047,7 +12158,7 @@
           <t>23:03</t>
         </is>
       </c>
-      <c r="E1385" t="inlineStr">
+      <c r="F1385" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12059,7 +12170,7 @@
           <t>23:04</t>
         </is>
       </c>
-      <c r="E1386" t="inlineStr">
+      <c r="F1386" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>

--- a/utils/machine_agenda.xlsx
+++ b/utils/machine_agenda.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1441"/>
+  <dimension ref="A1:G1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,7 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,10 +453,15 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>MRI-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>MRI-2</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>MRI-3</t>
         </is>
@@ -677,6 +683,11 @@
           <t>00:30</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -684,6 +695,11 @@
           <t>00:31</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -691,6 +707,11 @@
           <t>00:32</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -698,6 +719,11 @@
           <t>00:33</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -705,6 +731,11 @@
           <t>00:34</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -712,6 +743,11 @@
           <t>00:35</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -719,6 +755,11 @@
           <t>00:36</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -726,6 +767,11 @@
           <t>00:37</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -733,6 +779,11 @@
           <t>00:38</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -740,6 +791,11 @@
           <t>00:39</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -747,6 +803,11 @@
           <t>00:40</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -754,6 +815,11 @@
           <t>00:41</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -761,6 +827,11 @@
           <t>00:42</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -768,6 +839,11 @@
           <t>00:43</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -775,6 +851,11 @@
           <t>00:44</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -782,6 +863,11 @@
           <t>00:45</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -789,6 +875,11 @@
           <t>00:46</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -796,6 +887,11 @@
           <t>00:47</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -803,6 +899,11 @@
           <t>00:48</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -810,6 +911,11 @@
           <t>00:49</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -817,6 +923,11 @@
           <t>00:50</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -824,6 +935,11 @@
           <t>00:51</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -831,6 +947,11 @@
           <t>00:52</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -838,6 +959,11 @@
           <t>00:53</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -845,6 +971,11 @@
           <t>00:54</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -852,6 +983,11 @@
           <t>00:55</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -859,6 +995,11 @@
           <t>00:56</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -866,6 +1007,11 @@
           <t>00:57</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -873,6 +1019,11 @@
           <t>00:58</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -880,6 +1031,11 @@
           <t>00:59</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -887,6 +1043,11 @@
           <t>01:00</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -894,6 +1055,11 @@
           <t>01:01</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -901,6 +1067,11 @@
           <t>01:02</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -908,6 +1079,11 @@
           <t>01:03</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -915,6 +1091,11 @@
           <t>01:04</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -922,6 +1103,11 @@
           <t>01:05</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -929,6 +1115,11 @@
           <t>01:06</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -936,6 +1127,11 @@
           <t>01:07</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -943,6 +1139,11 @@
           <t>01:08</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -950,6 +1151,11 @@
           <t>01:09</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -957,6 +1163,11 @@
           <t>01:10</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -964,6 +1175,11 @@
           <t>01:11</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -971,6 +1187,11 @@
           <t>01:12</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -978,6 +1199,11 @@
           <t>01:13</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -985,6 +1211,11 @@
           <t>01:14</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -992,6 +1223,11 @@
           <t>01:15</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -999,6 +1235,11 @@
           <t>01:16</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1006,6 +1247,11 @@
           <t>01:17</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1013,6 +1259,11 @@
           <t>01:18</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1020,6 +1271,11 @@
           <t>01:19</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1027,6 +1283,11 @@
           <t>01:20</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1034,6 +1295,11 @@
           <t>01:21</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1046,6 +1312,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1058,6 +1329,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1070,6 +1346,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1082,6 +1363,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1094,6 +1380,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1106,6 +1397,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1118,6 +1414,11 @@
           <t>0 (CT)</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>8 (MRI)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7760,7 +8061,7 @@
           <t>16:39</t>
         </is>
       </c>
-      <c r="E1001" t="inlineStr">
+      <c r="F1001" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7772,7 +8073,7 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="E1002" t="inlineStr">
+      <c r="F1002" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7784,7 +8085,7 @@
           <t>16:41</t>
         </is>
       </c>
-      <c r="E1003" t="inlineStr">
+      <c r="F1003" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7796,7 +8097,7 @@
           <t>16:42</t>
         </is>
       </c>
-      <c r="E1004" t="inlineStr">
+      <c r="F1004" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7808,7 +8109,7 @@
           <t>16:43</t>
         </is>
       </c>
-      <c r="E1005" t="inlineStr">
+      <c r="F1005" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7820,7 +8121,7 @@
           <t>16:44</t>
         </is>
       </c>
-      <c r="E1006" t="inlineStr">
+      <c r="F1006" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7832,7 +8133,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="E1007" t="inlineStr">
+      <c r="F1007" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7844,7 +8145,7 @@
           <t>16:46</t>
         </is>
       </c>
-      <c r="E1008" t="inlineStr">
+      <c r="F1008" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7856,7 +8157,7 @@
           <t>16:47</t>
         </is>
       </c>
-      <c r="E1009" t="inlineStr">
+      <c r="F1009" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7868,7 +8169,7 @@
           <t>16:48</t>
         </is>
       </c>
-      <c r="E1010" t="inlineStr">
+      <c r="F1010" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7880,7 +8181,7 @@
           <t>16:49</t>
         </is>
       </c>
-      <c r="E1011" t="inlineStr">
+      <c r="F1011" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7897,7 +8198,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1012" t="inlineStr">
+      <c r="F1012" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7914,7 +8215,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1013" t="inlineStr">
+      <c r="F1013" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7931,7 +8232,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1014" t="inlineStr">
+      <c r="F1014" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7948,7 +8249,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1015" t="inlineStr">
+      <c r="F1015" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7965,7 +8266,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1016" t="inlineStr">
+      <c r="F1016" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7982,7 +8283,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1017" t="inlineStr">
+      <c r="F1017" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -7999,7 +8300,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1018" t="inlineStr">
+      <c r="F1018" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -8016,7 +8317,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1019" t="inlineStr">
+      <c r="F1019" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -8033,7 +8334,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1020" t="inlineStr">
+      <c r="F1020" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -8050,7 +8351,7 @@
           <t>2 (CT)</t>
         </is>
       </c>
-      <c r="E1021" t="inlineStr">
+      <c r="F1021" t="inlineStr">
         <is>
           <t>2 (MRI)</t>
         </is>
@@ -11315,7 +11616,7 @@
           <t>22:09</t>
         </is>
       </c>
-      <c r="F1331" t="inlineStr">
+      <c r="G1331" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11327,7 +11628,7 @@
           <t>22:10</t>
         </is>
       </c>
-      <c r="F1332" t="inlineStr">
+      <c r="G1332" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11339,7 +11640,7 @@
           <t>22:11</t>
         </is>
       </c>
-      <c r="F1333" t="inlineStr">
+      <c r="G1333" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11356,7 +11657,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1334" t="inlineStr">
+      <c r="G1334" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11373,7 +11674,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1335" t="inlineStr">
+      <c r="G1335" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11390,7 +11691,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1336" t="inlineStr">
+      <c r="G1336" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11407,7 +11708,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1337" t="inlineStr">
+      <c r="G1337" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11424,7 +11725,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1338" t="inlineStr">
+      <c r="G1338" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11441,7 +11742,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1339" t="inlineStr">
+      <c r="G1339" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11458,7 +11759,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1340" t="inlineStr">
+      <c r="G1340" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11475,7 +11776,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1341" t="inlineStr">
+      <c r="G1341" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11492,7 +11793,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1342" t="inlineStr">
+      <c r="G1342" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11509,7 +11810,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1343" t="inlineStr">
+      <c r="G1343" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11526,7 +11827,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1344" t="inlineStr">
+      <c r="G1344" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11543,7 +11844,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1345" t="inlineStr">
+      <c r="G1345" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11560,7 +11861,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1346" t="inlineStr">
+      <c r="G1346" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11577,7 +11878,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1347" t="inlineStr">
+      <c r="G1347" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11594,7 +11895,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1348" t="inlineStr">
+      <c r="G1348" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11611,7 +11912,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1349" t="inlineStr">
+      <c r="G1349" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11628,7 +11929,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1350" t="inlineStr">
+      <c r="G1350" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11645,7 +11946,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1351" t="inlineStr">
+      <c r="G1351" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11662,7 +11963,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1352" t="inlineStr">
+      <c r="G1352" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11679,7 +11980,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1353" t="inlineStr">
+      <c r="G1353" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11696,7 +11997,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1354" t="inlineStr">
+      <c r="G1354" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11713,7 +12014,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1355" t="inlineStr">
+      <c r="G1355" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11730,7 +12031,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1356" t="inlineStr">
+      <c r="G1356" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11747,7 +12048,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1357" t="inlineStr">
+      <c r="G1357" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11764,7 +12065,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1358" t="inlineStr">
+      <c r="G1358" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11781,7 +12082,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1359" t="inlineStr">
+      <c r="G1359" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11798,7 +12099,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1360" t="inlineStr">
+      <c r="G1360" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11815,7 +12116,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1361" t="inlineStr">
+      <c r="G1361" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11832,7 +12133,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1362" t="inlineStr">
+      <c r="G1362" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11849,7 +12150,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1363" t="inlineStr">
+      <c r="G1363" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11866,7 +12167,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1364" t="inlineStr">
+      <c r="G1364" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11883,7 +12184,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1365" t="inlineStr">
+      <c r="G1365" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11900,7 +12201,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1366" t="inlineStr">
+      <c r="G1366" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11917,7 +12218,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1367" t="inlineStr">
+      <c r="G1367" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11934,7 +12235,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1368" t="inlineStr">
+      <c r="G1368" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11951,7 +12252,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1369" t="inlineStr">
+      <c r="G1369" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11968,7 +12269,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1370" t="inlineStr">
+      <c r="G1370" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -11985,7 +12286,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1371" t="inlineStr">
+      <c r="G1371" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12002,7 +12303,7 @@
           <t>1 (CT)</t>
         </is>
       </c>
-      <c r="F1372" t="inlineStr">
+      <c r="G1372" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12014,7 +12315,7 @@
           <t>22:51</t>
         </is>
       </c>
-      <c r="F1373" t="inlineStr">
+      <c r="G1373" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12026,7 +12327,7 @@
           <t>22:52</t>
         </is>
       </c>
-      <c r="F1374" t="inlineStr">
+      <c r="G1374" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12038,7 +12339,7 @@
           <t>22:53</t>
         </is>
       </c>
-      <c r="F1375" t="inlineStr">
+      <c r="G1375" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12050,7 +12351,7 @@
           <t>22:54</t>
         </is>
       </c>
-      <c r="F1376" t="inlineStr">
+      <c r="G1376" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12062,7 +12363,7 @@
           <t>22:55</t>
         </is>
       </c>
-      <c r="F1377" t="inlineStr">
+      <c r="G1377" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12074,7 +12375,7 @@
           <t>22:56</t>
         </is>
       </c>
-      <c r="F1378" t="inlineStr">
+      <c r="G1378" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12086,7 +12387,7 @@
           <t>22:57</t>
         </is>
       </c>
-      <c r="F1379" t="inlineStr">
+      <c r="G1379" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12098,7 +12399,7 @@
           <t>22:58</t>
         </is>
       </c>
-      <c r="F1380" t="inlineStr">
+      <c r="G1380" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12110,7 +12411,7 @@
           <t>22:59</t>
         </is>
       </c>
-      <c r="F1381" t="inlineStr">
+      <c r="G1381" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12122,7 +12423,7 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="F1382" t="inlineStr">
+      <c r="G1382" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12134,7 +12435,7 @@
           <t>23:01</t>
         </is>
       </c>
-      <c r="F1383" t="inlineStr">
+      <c r="G1383" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12146,7 +12447,7 @@
           <t>23:02</t>
         </is>
       </c>
-      <c r="F1384" t="inlineStr">
+      <c r="G1384" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12158,7 +12459,7 @@
           <t>23:03</t>
         </is>
       </c>
-      <c r="F1385" t="inlineStr">
+      <c r="G1385" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
@@ -12170,7 +12471,7 @@
           <t>23:04</t>
         </is>
       </c>
-      <c r="F1386" t="inlineStr">
+      <c r="G1386" t="inlineStr">
         <is>
           <t>9 (MRI)</t>
         </is>
